--- a/assets/templates/KASI0001_KASENEEMAmovies..xlsx
+++ b/assets/templates/KASI0001_KASENEEMAmovies..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
   <si>
     <t>movies</t>
   </si>
@@ -77,12 +77,6 @@
     <t>https://drive.google.com/file/d/1s0WO7zb6djRle91aFSdUJpV0l5Xj3fVI</t>
   </si>
   <si>
-    <t>The score</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12rNOrCgJVFiOzzCt1Av6FGgGAmKyQvvG</t>
-  </si>
-  <si>
     <t>mark</t>
   </si>
   <si>
@@ -128,12 +122,6 @@
     <t>https://drive.google.com/file/d/1gVtGlyG-OYn_1f_mnLV7tfQ0uoMn9HNT</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1pjDsOvNal9Op_Sga0a5ESSuHHlr8tXet</t>
-  </si>
-  <si>
-    <t>The proposition</t>
-  </si>
-  <si>
     <t>The kin</t>
   </si>
   <si>
@@ -149,10 +137,211 @@
     <t>https://drive.google.com/file/d/1DnkNNV55MW4IjuKpXZWVmh3g-NLpLD2k</t>
   </si>
   <si>
-    <t>TWISTERS</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1b-8AmOhjblOJ1vNZmh-jJFHdrLehF-WL</t>
+    <t>youngblood</t>
+  </si>
+  <si>
+    <t>lance</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QoFZK_-HU8Ngdieh27A_VLbUJDPLp-cL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZvF6kK0V9c3iQ0HNZ1NEyJzAPD-vVsc_</t>
+  </si>
+  <si>
+    <t>the one and only ivan.vjlance</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lAO56mzKaQVAwjOqMVEy94nx-Bkfdton</t>
+  </si>
+  <si>
+    <t>the unforgivable.vj lance</t>
+  </si>
+  <si>
+    <t>the platform.vjlance</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1amB8nCBnsCNXC7TQib2AAHfV6coGjb5F</t>
+  </si>
+  <si>
+    <t>the mauritanian</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zw-dY1vmK6MkNVXIRlBjj98DNFihEfVv</t>
+  </si>
+  <si>
+    <t>milk money</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pAM9YMbq1ghBSf39JPeUlGHkD3DQA6pt</t>
+  </si>
+  <si>
+    <t>hidden figures</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qmWntnF4xymA-XR83hUv1oUc-sBro2WF</t>
+  </si>
+  <si>
+    <t>THE CLIENT. VJ MARK</t>
+  </si>
+  <si>
+    <t>VJ MARK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1B_V8BAi6Zj51bj6EPrOgSvPuUHRmm-fj</t>
+  </si>
+  <si>
+    <t>MISSION CROSS</t>
+  </si>
+  <si>
+    <t>VJ JUNIOR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1m0l2vLrHm5BUDkaErJrgoAZqk-XAcTYJ</t>
+  </si>
+  <si>
+    <t>KILL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UZI-A1ofnMY1PkVG_fn7K4_PG-bXFQEx</t>
+  </si>
+  <si>
+    <t>INDIAN</t>
+  </si>
+  <si>
+    <t>VJ ICE.P</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15GUQafSw-HIOs_1SjTz_g46xQETEVDju</t>
+  </si>
+  <si>
+    <t>INDIAN 2</t>
+  </si>
+  <si>
+    <t>GANGS OG GODAVARI 1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FMATvfCF5ukShPS4DX1H7glac5BVArPs</t>
+  </si>
+  <si>
+    <t>GANGS OG GODAVARI 2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1S8cSrliKaX1xTiURtiPdgGAas4CJdGhk</t>
+  </si>
+  <si>
+    <t>CROW JR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1l3yk6l2_FLrqnOYxpZWv8T8RVFgxRWsI</t>
+  </si>
+  <si>
+    <t>CAPTURE THE FLAG</t>
+  </si>
+  <si>
+    <t>VJ KEVO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RrGN3jzZ094-_ErdmD0uA9aFUAvcBvRm</t>
+  </si>
+  <si>
+    <t>MR.BEANS HOLIDAY</t>
+  </si>
+  <si>
+    <t>HEAVY.Q</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1o0L2Ej7rOku00yzgbrqxrcmcgSC_Jfge</t>
+  </si>
+  <si>
+    <t>SARA'S NOTEBOOK</t>
+  </si>
+  <si>
+    <t>VJ EMMY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1P3CLpbxQ7u2mMjKQKzfdGPhu2NRBMu7H/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>WHITE TIGER</t>
+  </si>
+  <si>
+    <t>VJ JINGO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sVWrDdgNjpfSWuiGpBEhMRZZdDFsf-L-</t>
+  </si>
+  <si>
+    <t>ESCAPE FROM VICTORY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CfH1yxLf68mW0-CrZSmF__E1CVd4Ekox</t>
+  </si>
+  <si>
+    <t>THE SIEGE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZRvKcGJS2siwIWdtacfkG_CCIH1WIOQK</t>
+  </si>
+  <si>
+    <t>THE DARK TOWER</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1X0Bo8iI4NKpX5OszNm4FnPjLZaV7xrJH</t>
+  </si>
+  <si>
+    <t>R.I.P.D</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fclWsxpzU4n_-Ym8fNL_v7nwVn2Dzl13</t>
+  </si>
+  <si>
+    <t>KAMASTURA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1o68iMXwbJc1C_TEagPga8FsQ_1qPJxnr</t>
+  </si>
+  <si>
+    <t>HANCOCK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aRu6eFPgCA6Ax8K6xix7bwOcuhpR2WFS</t>
+  </si>
+  <si>
+    <t>EVIL DEAD RISE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18_lFo4pO_4yLx14tGCj-6PWVTFMDMwxV</t>
+  </si>
+  <si>
+    <t>EUROTRIP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cjMuhp4eN_7IU3dXIxEBrEFnvAHXgMLb</t>
+  </si>
+  <si>
+    <t>BLENDED</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eoHAIxKmUujoaWZP6pqQLsr-WD4PjxDF</t>
+  </si>
+  <si>
+    <t>AWARENESS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1e6jZbOrhIHy6Db0dDAYsbJ3mPPpJLMqs</t>
+  </si>
+  <si>
+    <t>ASSASSINS CLUB</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1v6amVvhmhLOseUR5vYAdvaSG7nHiAJJe</t>
+  </si>
+  <si>
+    <t>13HRS.THE SECRET SOLDIERS OF BENGHAZI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NOeHqnzlQy59y-3VsyvyzyQmv3uR5kxt</t>
   </si>
 </sst>
 </file>
@@ -274,8 +463,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I14" totalsRowShown="0">
-  <autoFilter ref="A2:I14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I42" totalsRowShown="0">
+  <autoFilter ref="A2:I42"/>
   <tableColumns count="9">
     <tableColumn id="1" name="movie_name"/>
     <tableColumn id="2" name="cover_url"/>
@@ -588,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +852,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -677,10 +866,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>18</v>
@@ -698,7 +887,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>20</v>
@@ -716,7 +905,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
@@ -731,13 +920,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" t="s">
@@ -752,9 +941,9 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="7"/>
@@ -770,9 +959,9 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="7"/>
@@ -788,7 +977,7 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>33</v>
@@ -803,15 +992,14 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="7"/>
+        <v>36</v>
+      </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
@@ -821,15 +1009,14 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>39</v>
+      </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
@@ -839,10 +1026,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>40</v>
@@ -856,10 +1043,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>42</v>
@@ -871,12 +1058,486 @@
         <v>3</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="H23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H42">
       <formula1>$B$1:$C$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I42">
       <formula1>$H$1:$I$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -886,17 +1547,44 @@
     <hyperlink ref="E5" r:id="rId3"/>
     <hyperlink ref="E6" r:id="rId4"/>
     <hyperlink ref="E7" r:id="rId5"/>
-    <hyperlink ref="E8" r:id="rId6"/>
+    <hyperlink ref="E9" r:id="rId6"/>
     <hyperlink ref="E10" r:id="rId7"/>
     <hyperlink ref="E11" r:id="rId8"/>
     <hyperlink ref="E12" r:id="rId9"/>
     <hyperlink ref="E13" r:id="rId10"/>
     <hyperlink ref="E14" r:id="rId11"/>
+    <hyperlink ref="E15" r:id="rId12"/>
+    <hyperlink ref="E16" r:id="rId13"/>
+    <hyperlink ref="E18" r:id="rId14"/>
+    <hyperlink ref="E17" r:id="rId15"/>
+    <hyperlink ref="E19" r:id="rId16"/>
+    <hyperlink ref="E20" r:id="rId17"/>
+    <hyperlink ref="E21" r:id="rId18"/>
+    <hyperlink ref="E22" r:id="rId19"/>
+    <hyperlink ref="E24" r:id="rId20"/>
+    <hyperlink ref="E25" r:id="rId21"/>
+    <hyperlink ref="E26" r:id="rId22"/>
+    <hyperlink ref="E27" r:id="rId23"/>
+    <hyperlink ref="E28" r:id="rId24"/>
+    <hyperlink ref="E29" r:id="rId25"/>
+    <hyperlink ref="E30" r:id="rId26"/>
+    <hyperlink ref="E31" r:id="rId27"/>
+    <hyperlink ref="E32" r:id="rId28"/>
+    <hyperlink ref="E33" r:id="rId29"/>
+    <hyperlink ref="E34" r:id="rId30"/>
+    <hyperlink ref="E35" r:id="rId31"/>
+    <hyperlink ref="E36" r:id="rId32"/>
+    <hyperlink ref="E37" r:id="rId33"/>
+    <hyperlink ref="E38" r:id="rId34"/>
+    <hyperlink ref="E39" r:id="rId35"/>
+    <hyperlink ref="E40" r:id="rId36"/>
+    <hyperlink ref="E41" r:id="rId37"/>
+    <hyperlink ref="E42" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId40"/>
   </tableParts>
 </worksheet>
 </file>